--- a/Tickets/urlsExcel/urls.xlsx
+++ b/Tickets/urlsExcel/urls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Noguera\Documents\Tickets\urlsExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Noguera\Documents\GitHub\ElectroNeek\Tickets\urlsExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D06B35A-E223-4064-AB8F-03ADFEAA798B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638F784B-64C2-4322-A391-53C9AF18EE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B5CEF80-8225-4F0C-A54F-849EB7F24ADA}"/>
+    <workbookView xWindow="6555" yWindow="4215" windowWidth="13935" windowHeight="11385" xr2:uid="{7B5CEF80-8225-4F0C-A54F-849EB7F24ADA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>url</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>https://help.electroneek.com/hc/en-us</t>
+  </si>
+  <si>
+    <t>About 163,000,000 results (0.36 seconds) </t>
+  </si>
+  <si>
+    <t>About 269,000,000 results (0.45 seconds) </t>
+  </si>
+  <si>
+    <t>About 230,000,000 results (0.55 seconds) </t>
+  </si>
+  <si>
+    <t>About 78,700,000 results (0.38 seconds) </t>
   </si>
 </sst>
 </file>
@@ -396,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D2655A-FB2A-4AE5-86DE-AAC0AC1B7BF7}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -404,19 +416,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
